--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B9D0FD02-23E9-44BC-B08A-5CB2798F7B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="17595" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
   <oleSize ref="A1:N9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>头像图片</t>
+  </si>
   <si>
     <t>编号</t>
   </si>
@@ -32,6 +34,9 @@
     <t>工资</t>
   </si>
   <si>
+    <t>${headImage}</t>
+  </si>
+  <si>
     <t>${no}</t>
   </si>
   <si>
@@ -57,14 +62,19 @@
   </si>
   <si>
     <t>${oldSalary}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,29 +83,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -103,9 +436,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -113,21 +688,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -414,21 +1033,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,86 +1063,96 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" customFormat="1" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17595" windowHeight="6510"/>
+    <workbookView windowWidth="16605" windowHeight="4200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,49 +86,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,8 +136,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -152,52 +183,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,29 +226,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -243,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,23 +433,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,26 +465,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,16 +494,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -688,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,7 +1060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:5">
+    <row r="2" customFormat="1" ht="101" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16605" windowHeight="4200"/>
+    <workbookView windowWidth="23325" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:N9"/>
 </workbook>
 </file>
 
@@ -71,8 +70,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,6 +83,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -91,22 +97,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,110 +173,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,25 +235,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,157 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,26 +429,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,6 +468,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -493,26 +507,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,145 +534,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,6 +1040,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -68,10 +68,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,6 +83,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -96,6 +118,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -103,25 +172,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,41 +198,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,54 +225,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,31 +235,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,133 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,25 +425,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,6 +461,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,21 +528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -534,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,142 +567,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1034,7 +1058,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1046,7 +1070,7 @@
     <col min="5" max="5" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1094,7 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9990"/>
+    <workbookView windowWidth="15240" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:E2"/>
 </workbook>
 </file>
 
@@ -68,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,90 +84,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +143,52 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -189,22 +197,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -218,15 +226,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,19 +236,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,169 +380,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +481,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -465,17 +511,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,24 +535,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,6 +546,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,70 +598,70 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,73 +670,88 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1058,7 +1104,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1071,13 +1117,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1091,13 +1137,13 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42954\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B4223E-EC6D-4BEB-8C64-4DA2C0ABBDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{98667C9A-B16B-4DA6-A18E-0E3CD271B3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="2205" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21630" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -212,6 +208,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1306811</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1095375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69165FF5-0AAE-470C-8787-A2DD4DB045DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="304800"/>
+          <a:ext cx="1230611" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -533,20 +584,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" customFormat="1" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -554,6 +610,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{98667C9A-B16B-4DA6-A18E-0E3CD271B3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace-2022-12\excel-eventpoi\src\test\java\com\dc\eventpoi\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27168275-A788-4E05-B0E3-A5979D207FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21630" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="3525" windowWidth="22020" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>头像图片</t>
   </si>
@@ -35,18 +39,12 @@
     <t>工资</t>
   </si>
   <si>
-    <t>${headImage}</t>
-  </si>
-  <si>
     <t>${no}</t>
   </si>
   <si>
     <t>${name}</t>
   </si>
   <si>
-    <t>${age}</t>
-  </si>
-  <si>
     <t>${salary}</t>
   </si>
   <si>
@@ -63,13 +61,45 @@
   </si>
   <si>
     <t>${oldSalary}</t>
+  </si>
+  <si>
+    <t>合并行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他合并1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.headImage}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.no}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.age}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.salary}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${tab.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +110,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -157,22 +195,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -180,6 +212,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -216,13 +272,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1306811</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1095375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -253,7 +309,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="76200" y="304800"/>
-          <a:ext cx="1230611" cy="962025"/>
+          <a:ext cx="542925" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -552,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -565,16 +621,17 @@
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -583,34 +640,63 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:5" customFormat="1" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
+      <c r="F2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8">
+        <v>123</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" customFormat="1" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="7"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -629,30 +715,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace-2022-12\excel-eventpoi\src\test\java\com\dc\eventpoi\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27168275-A788-4E05-B0E3-A5979D207FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7EF7DD-72F3-459C-B734-5D73BDB5CE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="3525" windowWidth="22020" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="1305" windowWidth="22020" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,19 +79,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${list.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${list.age}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${list.salary}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${tab.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名：${list.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.age/3.0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,14 +226,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,7 +611,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -619,7 +619,7 @@
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
     <col min="5" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
@@ -668,24 +668,24 @@
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
       <c r="F4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace-2022-12\excel-eventpoi\src\test\java\com\dc\eventpoi\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7EF7DD-72F3-459C-B734-5D73BDB5CE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265DE91D-A03D-4FDF-8B38-559F803A6B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="1305" windowWidth="22020" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>头像图片</t>
   </si>
@@ -91,7 +91,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${list.age/3.0}</t>
+    <t>啊啊啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.age/3.0}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +166,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFEF3F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +249,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -608,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -624,14 +646,14 @@
     <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -640,16 +662,16 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="2"/>
       <c r="C2" s="7"/>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="8">
@@ -660,7 +682,7 @@
       <c r="A3" s="6"/>
       <c r="B3" s="2"/>
       <c r="C3" s="7"/>
-      <c r="F3" s="13"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -682,10 +704,20 @@
         <v>19</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace-2022-12\excel-eventpoi\src\test\java\com\dc\eventpoi\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265DE91D-A03D-4FDF-8B38-559F803A6B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B687A4-271E-4884-8755-7D26A381D162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,6 @@
     <t>${oldSalary}</t>
   </si>
   <si>
-    <t>合并行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他合并1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,15 +83,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姓名：${list.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>啊啊啊啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${list.age/3.0}%</t>
+    <t>姓名：${list.name}==${list.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.age/2.0}%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并行${tab.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,13 +171,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFCC0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,6 +255,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -268,6 +271,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC0000"/>
       <color rgb="FFFEF3F0"/>
       <color rgb="FFD8FCDF"/>
       <color rgb="FFD8FCE5"/>
@@ -292,13 +296,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1095375</xdr:rowOff>
@@ -630,100 +634,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="46.75" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="45.875" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="7"/>
+      <c r="G2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="7"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>123</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="15"/>
+      <c r="C5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="7"/>
-      <c r="F2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="8">
-        <v>123</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="7"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="F4" s="9" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C7" s="9" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace-2022-12\excel-eventpoi\src\test\java\com\dc\eventpoi\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B687A4-271E-4884-8755-7D26A381D162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DAFE1C-A005-40B5-B366-5B9FAEE2A915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${list.salary}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${tab.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,11 +87,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>合并行${tab.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算结果：${list.salary}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${list.age/2.0}%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合并行${tab.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +637,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -676,7 +676,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="G2" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" s="8">
         <v>123</v>
@@ -694,7 +694,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="G4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -708,23 +708,23 @@
         <v>15</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace-2022-12\excel-eventpoi\src\test\java\com\dc\eventpoi\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DAFE1C-A005-40B5-B366-5B9FAEE2A915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76A87C7-C408-4EDB-A8FD-7F2766DA96FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="4170" windowWidth="28590" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姓名：${list.name}==${list.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合并行${tab.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +92,10 @@
   </si>
   <si>
     <t>${list.age/2.0}%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名：${list.name}==${list.age}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +637,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -676,7 +676,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="G2" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="8">
         <v>123</v>
@@ -708,13 +708,13 @@
         <v>15</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace-2022-12\excel-eventpoi\src\test\java\com\dc\eventpoi\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76A87C7-C408-4EDB-A8FD-7F2766DA96FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5EC4D-D411-4100-BC4B-85C0E68F51F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="4170" windowWidth="28590" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="4455" windowWidth="28590" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>头像图片</t>
   </si>
@@ -91,11 +91,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${list.age/2.0}%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名：${list.name}==${list.age}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${round(list.age/3.0,2)}%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试截取小数$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{truncate(1.5888,2)}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +654,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -646,7 +663,7 @@
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="45.875" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -693,6 +710,9 @@
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="G4" s="9" t="s">
         <v>16</v>
       </c>
@@ -708,10 +728,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>19</v>

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace-2022-12\excel-eventpoi\src\test\java\com\dc\eventpoi\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5EC4D-D411-4100-BC4B-85C0E68F51F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD641E4-3579-4EAD-B43D-62EA69E22C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="4455" windowWidth="28590" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>头像图片</t>
   </si>
@@ -113,6 +113,10 @@
       </rPr>
       <t>{truncate(1.5888,2)}</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${round(list.age/3.0)}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +658,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -664,7 +668,7 @@
     <col min="4" max="4" width="45.875" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="7" max="7" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -735,6 +739,9 @@
       </c>
       <c r="F5" s="9" t="s">
         <v>19</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace-2022-12\excel-eventpoi\src\test\java\com\dc\eventpoi\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace-2022-12\merchant-manager\merchant-service\src\test\java\com\emar\merchant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD641E4-3579-4EAD-B43D-62EA69E22C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62587EF-13D8-4A0F-83FE-545C5259D08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="6285" windowWidth="28590" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>头像图片</t>
   </si>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${list.no}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${tab.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,28 +91,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${round(list.age/3.0,2)}%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>测试截取小数$</t>
+      <t>测试小数${truncate(1.5677,2)</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{truncate(1.5888,2)}</t>
+      <t>}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${round(list.age/3.0)}%</t>
+    <t>${round(list.age/3.0,2)}%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${list.no}===${ifnull(list.no,"空的")}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,17 +653,17 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="46.75" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
     <col min="4" max="4" width="45.875" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
-    <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="31.625" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -697,7 +692,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="G2" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="8">
         <v>123</v>
@@ -715,10 +710,10 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -729,29 +724,26 @@
         <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace-2022-12\merchant-manager\merchant-service\src\test\java\com\emar\merchant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace-2022-12\excel-eventpoi\src\test\java\com\dc\eventpoi\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62587EF-13D8-4A0F-83FE-545C5259D08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EE67CF-2F78-47CB-95FE-53E948412366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="6285" windowWidth="28590" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="3045" windowWidth="29385" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,11 +107,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${round(list.age/3.0,2)}%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${list.no}===${ifnull(list.no,"空的")}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${divideRound(list.age,3,2)}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,13 +724,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>18</v>

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace-2022-12\excel-eventpoi\src\test\java\com\dc\eventpoi\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EE67CF-2F78-47CB-95FE-53E948412366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E9F4AD-B6AD-4121-B088-A814ECF1C7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="3045" windowWidth="29385" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1530" windowWidth="24120" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>头像图片</t>
   </si>
@@ -36,9 +36,6 @@
     <t>年龄</t>
   </si>
   <si>
-    <t>工资</t>
-  </si>
-  <si>
     <t>${no}</t>
   </si>
   <si>
@@ -83,35 +80,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算结果：${list.salary}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名：${list.name}==${list.age}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>测试小数${truncate(1.5677,2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${list.no}===${ifnull(list.no,"空的")}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${divideRound(list.age,3,2)}%</t>
+    <t>${list.no}===${ifnull(list.nooo,"空的")}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印占位符内容：${list.remark}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元数据=${list.age}，计算后=${divideRound(list.age,3,2)}岁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -679,11 +664,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
+      <c r="F1" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="16"/>
     </row>
@@ -692,7 +677,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="G2" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="8">
         <v>123</v>
@@ -709,11 +694,9 @@
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -721,29 +704,29 @@
         <v>123</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -773,30 +756,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace-2022-12\excel-eventpoi\src\test\java\com\dc\eventpoi\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E9F4AD-B6AD-4121-B088-A814ECF1C7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1346CA-D77B-4BB4-8286-3402C76B27A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1530" windowWidth="24120" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>头像图片</t>
   </si>
@@ -97,6 +97,14 @@
   </si>
   <si>
     <t>元数据=${list.age}，计算后=${divideRound(list.age,3,2)}岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${myAdd(list.age,1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义加法公式列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +187,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,6 +277,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -649,9 +666,10 @@
     <col min="5" max="5" width="28.5" customWidth="1"/>
     <col min="6" max="6" width="33.5" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -671,8 +689,11 @@
         <v>12</v>
       </c>
       <c r="H1" s="16"/>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" s="6"/>
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
@@ -683,14 +704,14 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="2"/>
       <c r="D3" s="7"/>
       <c r="G3" s="16"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
@@ -699,7 +720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>123</v>
       </c>
@@ -718,13 +739,16 @@
       <c r="F5" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="I5" s="17" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C7" s="9" t="s">
         <v>15</v>
       </c>

--- a/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
+++ b/src/test/java/com/dc/eventpoi/test/demo1Templete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse-workspace-2022-12\excel-eventpoi\src\test\java\com\dc\eventpoi\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1346CA-D77B-4BB4-8286-3402C76B27A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063DC176-D9DC-4549-AB11-B07242C25D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,6 +123,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -275,11 +276,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,7 +656,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -663,10 +664,10 @@
     <col min="2" max="2" width="46.75" customWidth="1"/>
     <col min="3" max="3" width="50.625" customWidth="1"/>
     <col min="4" max="4" width="45.875" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="65.875" customWidth="1"/>
     <col min="6" max="6" width="33.5" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="9" max="9" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -685,10 +686,10 @@
       <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="9" t="s">
         <v>23</v>
       </c>
@@ -697,7 +698,7 @@
       <c r="B2" s="6"/>
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="8">
@@ -708,7 +709,7 @@
       <c r="B3" s="6"/>
       <c r="C3" s="2"/>
       <c r="D3" s="7"/>
-      <c r="G3" s="16"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -739,7 +740,7 @@
       <c r="F5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>22</v>
       </c>
     </row>
